--- a/designDoc/springbootebook_features.xlsx
+++ b/designDoc/springbootebook_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherwin/Documents/sherwinMacAir/sherwinProjects/sherwinWeb/SpringBootEbook/designDoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8A4F6-95D7-8548-9939-F62EE4060C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31BC736-927B-5D4D-958A-1F3EEBE6DB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="22840" windowHeight="17440" xr2:uid="{56CA8474-EDF8-8042-B304-E39323724704}"/>
+    <workbookView xWindow="1540" yWindow="540" windowWidth="22840" windowHeight="17440" xr2:uid="{56CA8474-EDF8-8042-B304-E39323724704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>feature</t>
   </si>
@@ -60,6 +60,78 @@
   </si>
   <si>
     <t>add new order into the end of the cart</t>
+  </si>
+  <si>
+    <t>add new billing, new delivery, new payment with the data from last order</t>
+  </si>
+  <si>
+    <t>billing, delivery, payment</t>
+  </si>
+  <si>
+    <t>pagination</t>
+  </si>
+  <si>
+    <t>shopping cart</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>add billing info</t>
+  </si>
+  <si>
+    <t>add payment info</t>
+  </si>
+  <si>
+    <t>add delivery info</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>browse products</t>
+  </si>
+  <si>
+    <t>list view</t>
+  </si>
+  <si>
+    <t>grid view</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>view account</t>
+  </si>
+  <si>
+    <t>search order</t>
+  </si>
+  <si>
+    <t>view favorite</t>
+  </si>
+  <si>
+    <t>view/edit billing info</t>
+  </si>
+  <si>
+    <t>view/edit delivery info</t>
   </si>
 </sst>
 </file>
@@ -411,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44758EB3-1885-034C-BE84-3B756740D994}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -433,34 +505,142 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C26" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
